--- a/data/pca/factorExposure/factorExposure_2014-11-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006536448077311985</v>
+        <v>-0.01341194553158643</v>
       </c>
       <c r="C2">
-        <v>0.08526843486915293</v>
+        <v>0.0764139380373267</v>
       </c>
       <c r="D2">
-        <v>-0.1406069161940419</v>
+        <v>-0.007757508166836048</v>
       </c>
       <c r="E2">
-        <v>0.1329503009150225</v>
+        <v>-0.1684739541939269</v>
       </c>
       <c r="F2">
-        <v>0.1942741984521152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03825601725926413</v>
+      </c>
+      <c r="G2">
+        <v>-0.04850062630101721</v>
+      </c>
+      <c r="H2">
+        <v>-0.06522201354922658</v>
+      </c>
+      <c r="I2">
+        <v>0.2226835616639923</v>
+      </c>
+      <c r="J2">
+        <v>-0.103009462351358</v>
+      </c>
+      <c r="K2">
+        <v>-0.1060657885910639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.02965168040170586</v>
+        <v>-0.01884537360291353</v>
       </c>
       <c r="C4">
-        <v>0.1579933850345895</v>
+        <v>0.1527069614765438</v>
       </c>
       <c r="D4">
-        <v>-0.03872582783761409</v>
+        <v>-0.0430532426277388</v>
       </c>
       <c r="E4">
-        <v>0.08717193273913047</v>
+        <v>-0.07877042141002712</v>
       </c>
       <c r="F4">
-        <v>-0.03995009246493864</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05750490323421282</v>
+      </c>
+      <c r="G4">
+        <v>-0.007865258498910904</v>
+      </c>
+      <c r="H4">
+        <v>-0.1168984698782829</v>
+      </c>
+      <c r="I4">
+        <v>0.06498537967114054</v>
+      </c>
+      <c r="J4">
+        <v>-0.1218720341206732</v>
+      </c>
+      <c r="K4">
+        <v>0.1441281534446216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.02003046895894154</v>
+        <v>-0.03608257192969677</v>
       </c>
       <c r="C6">
-        <v>0.07192526912898067</v>
+        <v>0.07333958219665927</v>
       </c>
       <c r="D6">
-        <v>-0.05779251536105794</v>
+        <v>-0.01937881187414041</v>
       </c>
       <c r="E6">
-        <v>0.09733765573798744</v>
+        <v>-0.1042622646801381</v>
       </c>
       <c r="F6">
-        <v>-0.01276049434544154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02451542279348768</v>
+      </c>
+      <c r="G6">
+        <v>0.05311105468172347</v>
+      </c>
+      <c r="H6">
+        <v>-0.04056328328889583</v>
+      </c>
+      <c r="I6">
+        <v>0.06236309670575462</v>
+      </c>
+      <c r="J6">
+        <v>0.01585874010625539</v>
+      </c>
+      <c r="K6">
+        <v>0.03858469261651472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.01186917572344231</v>
+        <v>-0.01125438243221833</v>
       </c>
       <c r="C7">
-        <v>0.05347539801881276</v>
+        <v>0.06669711582499874</v>
       </c>
       <c r="D7">
-        <v>-0.01583665827506994</v>
+        <v>-0.01180902756886678</v>
       </c>
       <c r="E7">
-        <v>0.05764241278913939</v>
+        <v>-0.02943049335024153</v>
       </c>
       <c r="F7">
-        <v>-0.004938353570621601</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.02558926603927987</v>
+      </c>
+      <c r="G7">
+        <v>0.06137412799114251</v>
+      </c>
+      <c r="H7">
+        <v>-0.08381061179998384</v>
+      </c>
+      <c r="I7">
+        <v>0.0175309445527725</v>
+      </c>
+      <c r="J7">
+        <v>-0.03175250107155424</v>
+      </c>
+      <c r="K7">
+        <v>0.01421559812873777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01683659053252388</v>
+        <v>0.008721634603431358</v>
       </c>
       <c r="C8">
-        <v>0.08210076621188957</v>
+        <v>0.07420412427290007</v>
       </c>
       <c r="D8">
-        <v>-0.05096530355863035</v>
+        <v>-0.03681303335252325</v>
       </c>
       <c r="E8">
-        <v>0.1218837455367253</v>
+        <v>-0.08495885011752601</v>
       </c>
       <c r="F8">
-        <v>0.07431456892057621</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02261328720254678</v>
+      </c>
+      <c r="G8">
+        <v>-0.05236777325957731</v>
+      </c>
+      <c r="H8">
+        <v>-0.03584567659960066</v>
+      </c>
+      <c r="I8">
+        <v>0.01115467628693151</v>
+      </c>
+      <c r="J8">
+        <v>0.005249553024974031</v>
+      </c>
+      <c r="K8">
+        <v>0.002871622393262258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.01460341147374934</v>
+        <v>-0.01111537808659928</v>
       </c>
       <c r="C9">
-        <v>0.1311918366943297</v>
+        <v>0.1165650856431673</v>
       </c>
       <c r="D9">
-        <v>-0.02515252338606668</v>
+        <v>-0.02837823385469139</v>
       </c>
       <c r="E9">
-        <v>0.06780668426542236</v>
+        <v>-0.04337066055770063</v>
       </c>
       <c r="F9">
-        <v>-0.02842349969960423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.01245297902951407</v>
+      </c>
+      <c r="G9">
+        <v>0.005043289802336894</v>
+      </c>
+      <c r="H9">
+        <v>-0.1020755006054206</v>
+      </c>
+      <c r="I9">
+        <v>0.03917343118358643</v>
+      </c>
+      <c r="J9">
+        <v>-0.05084852322266487</v>
+      </c>
+      <c r="K9">
+        <v>0.06623494187156916</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.2661378652575125</v>
+        <v>-0.2504481930756938</v>
       </c>
       <c r="C10">
-        <v>-0.087677324502135</v>
+        <v>-0.08742514627537401</v>
       </c>
       <c r="D10">
-        <v>-0.01763360324439603</v>
+        <v>-0.005469789724511213</v>
       </c>
       <c r="E10">
-        <v>-0.01633432540646568</v>
+        <v>-0.01600498917816406</v>
       </c>
       <c r="F10">
-        <v>-0.006205490157180995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.005616820110175393</v>
+      </c>
+      <c r="G10">
+        <v>0.004569812315086254</v>
+      </c>
+      <c r="H10">
+        <v>-0.03471341393676589</v>
+      </c>
+      <c r="I10">
+        <v>-0.1819479741063019</v>
+      </c>
+      <c r="J10">
+        <v>-0.006954466495730102</v>
+      </c>
+      <c r="K10">
+        <v>0.02079039164334699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.007251243178458777</v>
+        <v>-0.01346889079388646</v>
       </c>
       <c r="C11">
-        <v>0.06479078028952158</v>
+        <v>0.08058832798747932</v>
       </c>
       <c r="D11">
-        <v>-0.006203297661110017</v>
+        <v>-0.02422672148286089</v>
       </c>
       <c r="E11">
-        <v>0.03937412802154734</v>
+        <v>-0.01010442988175554</v>
       </c>
       <c r="F11">
-        <v>-0.06162615151870794</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.0107520405919406</v>
+      </c>
+      <c r="G11">
+        <v>0.03112943291907455</v>
+      </c>
+      <c r="H11">
+        <v>-0.03012301413842954</v>
+      </c>
+      <c r="I11">
+        <v>-0.0283752745271407</v>
+      </c>
+      <c r="J11">
+        <v>0.0133491342534171</v>
+      </c>
+      <c r="K11">
+        <v>0.005788202429171711</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.007822644386411537</v>
+        <v>-0.01460679583600115</v>
       </c>
       <c r="C12">
-        <v>0.06269407675451076</v>
+        <v>0.06336660749470953</v>
       </c>
       <c r="D12">
-        <v>0.002595490622723014</v>
+        <v>-0.01394351494086255</v>
       </c>
       <c r="E12">
-        <v>0.03087790558196744</v>
+        <v>-0.009184126667410203</v>
       </c>
       <c r="F12">
-        <v>-0.04218297575299768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01875151978990903</v>
+      </c>
+      <c r="G12">
+        <v>0.03639660268987505</v>
+      </c>
+      <c r="H12">
+        <v>-0.02982895406066178</v>
+      </c>
+      <c r="I12">
+        <v>-0.01496682666858841</v>
+      </c>
+      <c r="J12">
+        <v>0.0009871446715504413</v>
+      </c>
+      <c r="K12">
+        <v>0.01199339161667256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.01281682376676738</v>
+        <v>-0.003766092278618353</v>
       </c>
       <c r="C13">
-        <v>0.09768047000003385</v>
+        <v>0.1115855646081782</v>
       </c>
       <c r="D13">
-        <v>-0.03723626176052947</v>
+        <v>-0.02298613725784533</v>
       </c>
       <c r="E13">
-        <v>0.1376414137149135</v>
+        <v>-0.1458572733619392</v>
       </c>
       <c r="F13">
-        <v>-0.06579506843652343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09395138602864321</v>
+      </c>
+      <c r="G13">
+        <v>0.09825699377908975</v>
+      </c>
+      <c r="H13">
+        <v>-0.08530358323548445</v>
+      </c>
+      <c r="I13">
+        <v>-0.1755127699662928</v>
+      </c>
+      <c r="J13">
+        <v>-0.03545033824932012</v>
+      </c>
+      <c r="K13">
+        <v>-0.3372395041839539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.008224430754503612</v>
+        <v>-0.01588972759974391</v>
       </c>
       <c r="C14">
-        <v>0.05683844459818307</v>
+        <v>0.07487295046892017</v>
       </c>
       <c r="D14">
-        <v>-0.02364502506078411</v>
+        <v>-0.0327952907067736</v>
       </c>
       <c r="E14">
-        <v>0.06089931453421935</v>
+        <v>-0.06623806251927288</v>
       </c>
       <c r="F14">
-        <v>-0.02373785555229569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.02916626217959686</v>
+      </c>
+      <c r="G14">
+        <v>0.09520713483224326</v>
+      </c>
+      <c r="H14">
+        <v>-0.1912712615408259</v>
+      </c>
+      <c r="I14">
+        <v>-0.05088811366377641</v>
+      </c>
+      <c r="J14">
+        <v>0.1564533454901596</v>
+      </c>
+      <c r="K14">
+        <v>-0.04931787507031118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0004727562334207828</v>
+        <v>0.0004776692672505124</v>
       </c>
       <c r="C15">
-        <v>0.07663637715103704</v>
+        <v>0.07254959391081382</v>
       </c>
       <c r="D15">
-        <v>-0.04460560428810889</v>
+        <v>-0.02064617768533622</v>
       </c>
       <c r="E15">
-        <v>0.09651127695909666</v>
+        <v>-0.05750360500852256</v>
       </c>
       <c r="F15">
-        <v>-0.01634820898152073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.01284222626874202</v>
+      </c>
+      <c r="G15">
+        <v>0.04624169482793963</v>
+      </c>
+      <c r="H15">
+        <v>-0.07007723070712214</v>
+      </c>
+      <c r="I15">
+        <v>-0.01333858542804633</v>
+      </c>
+      <c r="J15">
+        <v>0.05362657603330383</v>
+      </c>
+      <c r="K15">
+        <v>0.02813346081582206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.01452343962405548</v>
+        <v>-0.01462515833622441</v>
       </c>
       <c r="C16">
-        <v>0.06069407543851086</v>
+        <v>0.06611774898491425</v>
       </c>
       <c r="D16">
-        <v>-0.005879345175440872</v>
+        <v>-0.01595830333257138</v>
       </c>
       <c r="E16">
-        <v>0.02829142816415729</v>
+        <v>-0.004549608925916116</v>
       </c>
       <c r="F16">
-        <v>-0.04464246221953284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.00104291282073338</v>
+      </c>
+      <c r="G16">
+        <v>0.02854176618138446</v>
+      </c>
+      <c r="H16">
+        <v>-0.02765920364821361</v>
+      </c>
+      <c r="I16">
+        <v>-0.009961083037207254</v>
+      </c>
+      <c r="J16">
+        <v>0.002226838827711061</v>
+      </c>
+      <c r="K16">
+        <v>0.007806219841926815</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.01058095792644653</v>
+        <v>-0.009800843283274107</v>
       </c>
       <c r="C20">
-        <v>0.07275652633594176</v>
+        <v>0.08348030171874334</v>
       </c>
       <c r="D20">
-        <v>-0.03544036661498392</v>
+        <v>-0.007370651450713156</v>
       </c>
       <c r="E20">
-        <v>0.06082197173636997</v>
+        <v>-0.0244576058745446</v>
       </c>
       <c r="F20">
-        <v>-0.0815780133706354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.02760577748080775</v>
+      </c>
+      <c r="G20">
+        <v>0.072335144455246</v>
+      </c>
+      <c r="H20">
+        <v>-0.06402340649673376</v>
+      </c>
+      <c r="I20">
+        <v>0.005209165965128998</v>
+      </c>
+      <c r="J20">
+        <v>-0.003575805610812743</v>
+      </c>
+      <c r="K20">
+        <v>0.04164046869121468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.00427152179554858</v>
+        <v>-0.01154751343754581</v>
       </c>
       <c r="C21">
-        <v>0.09696956912719439</v>
+        <v>0.08663204933372769</v>
       </c>
       <c r="D21">
-        <v>-0.06464965502214788</v>
+        <v>-0.01381859311256613</v>
       </c>
       <c r="E21">
-        <v>0.02194638699069493</v>
+        <v>-0.05355048228765052</v>
       </c>
       <c r="F21">
-        <v>0.01748469397706251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07599038902258007</v>
+      </c>
+      <c r="G21">
+        <v>0.01718783352092507</v>
+      </c>
+      <c r="H21">
+        <v>-0.1505467621384777</v>
+      </c>
+      <c r="I21">
+        <v>-0.05160401928848116</v>
+      </c>
+      <c r="J21">
+        <v>0.002174553067146498</v>
+      </c>
+      <c r="K21">
+        <v>-0.05207079332130344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.00682110779177723</v>
+        <v>0.01293012588791289</v>
       </c>
       <c r="C22">
-        <v>0.1404697073162113</v>
+        <v>0.1506150379672665</v>
       </c>
       <c r="D22">
-        <v>-0.2908507235420033</v>
+        <v>0.006920967911346897</v>
       </c>
       <c r="E22">
-        <v>0.1638899166379921</v>
+        <v>-0.4320209862245694</v>
       </c>
       <c r="F22">
-        <v>0.1627409782935423</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.1610308994916952</v>
+      </c>
+      <c r="G22">
+        <v>-0.2399528069577382</v>
+      </c>
+      <c r="H22">
+        <v>0.3371300092979476</v>
+      </c>
+      <c r="I22">
+        <v>-0.1358504083628688</v>
+      </c>
+      <c r="J22">
+        <v>0.1412153419884687</v>
+      </c>
+      <c r="K22">
+        <v>0.0351566287773736</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.007338081971345002</v>
+        <v>0.00899781267354356</v>
       </c>
       <c r="C23">
-        <v>0.1422066535497513</v>
+        <v>0.1548774567120096</v>
       </c>
       <c r="D23">
-        <v>-0.2889188191858201</v>
+        <v>0.008679100685173186</v>
       </c>
       <c r="E23">
-        <v>0.1612707598713938</v>
+        <v>-0.4210147608414526</v>
       </c>
       <c r="F23">
-        <v>0.162162100483904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.153396090303891</v>
+      </c>
+      <c r="G23">
+        <v>-0.2319473768439533</v>
+      </c>
+      <c r="H23">
+        <v>0.3140153806493873</v>
+      </c>
+      <c r="I23">
+        <v>-0.1355839445288571</v>
+      </c>
+      <c r="J23">
+        <v>0.1272328317466699</v>
+      </c>
+      <c r="K23">
+        <v>0.03115974579309125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.003274347523087779</v>
+        <v>-0.01405218916433102</v>
       </c>
       <c r="C24">
-        <v>0.07737185972144947</v>
+        <v>0.07667796153227711</v>
       </c>
       <c r="D24">
-        <v>0.005298439591918738</v>
+        <v>-0.02954948283912806</v>
       </c>
       <c r="E24">
-        <v>0.04889267607885914</v>
+        <v>-0.01028803700036001</v>
       </c>
       <c r="F24">
-        <v>-0.04906697231053586</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.005058680298331714</v>
+      </c>
+      <c r="G24">
+        <v>0.03546873942267549</v>
+      </c>
+      <c r="H24">
+        <v>-0.04138049271620138</v>
+      </c>
+      <c r="I24">
+        <v>-0.01315263658201926</v>
+      </c>
+      <c r="J24">
+        <v>0.003233340807769802</v>
+      </c>
+      <c r="K24">
+        <v>0.009021107640817337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.01179245312078081</v>
+        <v>-0.02026365947732511</v>
       </c>
       <c r="C25">
-        <v>0.07255968124215219</v>
+        <v>0.0746284279691637</v>
       </c>
       <c r="D25">
-        <v>-0.0004763587295964604</v>
+        <v>-0.01968208675927714</v>
       </c>
       <c r="E25">
-        <v>0.02400060876955</v>
+        <v>-0.006629373586763416</v>
       </c>
       <c r="F25">
-        <v>-0.04867037415056655</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.008718663222888019</v>
+      </c>
+      <c r="G25">
+        <v>0.02817691502741404</v>
+      </c>
+      <c r="H25">
+        <v>-0.02995416287382105</v>
+      </c>
+      <c r="I25">
+        <v>-0.03445319026943609</v>
+      </c>
+      <c r="J25">
+        <v>0.01288567117748754</v>
+      </c>
+      <c r="K25">
+        <v>0.0009872962717598118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0123916056904978</v>
+        <v>-0.02168562659346173</v>
       </c>
       <c r="C26">
-        <v>0.05432516536416367</v>
+        <v>0.06270340030437824</v>
       </c>
       <c r="D26">
-        <v>-0.001322142418545351</v>
+        <v>-0.04750819519086279</v>
       </c>
       <c r="E26">
-        <v>0.05814624349514178</v>
+        <v>-0.009322133375242195</v>
       </c>
       <c r="F26">
-        <v>-0.007600503077829772</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.00648570110702538</v>
+      </c>
+      <c r="G26">
+        <v>0.02148264313542852</v>
+      </c>
+      <c r="H26">
+        <v>-0.1121728883826188</v>
+      </c>
+      <c r="I26">
+        <v>0.03340698458891511</v>
+      </c>
+      <c r="J26">
+        <v>-0.06693850990480806</v>
+      </c>
+      <c r="K26">
+        <v>0.06879939468391889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.3643641517249154</v>
+        <v>-0.3243113086061653</v>
       </c>
       <c r="C28">
-        <v>-0.09506400436737317</v>
+        <v>-0.1042769627905801</v>
       </c>
       <c r="D28">
-        <v>0.0169912081330692</v>
+        <v>0.01624713005860609</v>
       </c>
       <c r="E28">
-        <v>-0.0634615839053233</v>
+        <v>-0.001943108381867459</v>
       </c>
       <c r="F28">
-        <v>0.0246151805524781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01748834029629978</v>
+      </c>
+      <c r="G28">
+        <v>-0.1061073556262284</v>
+      </c>
+      <c r="H28">
+        <v>-0.07541510535398271</v>
+      </c>
+      <c r="I28">
+        <v>-0.1032331391279167</v>
+      </c>
+      <c r="J28">
+        <v>-0.1175523145094278</v>
+      </c>
+      <c r="K28">
+        <v>-0.005090705333757829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.007352053848412548</v>
+        <v>-0.01043282629864988</v>
       </c>
       <c r="C29">
-        <v>0.05494006438419138</v>
+        <v>0.07691136714511299</v>
       </c>
       <c r="D29">
-        <v>-0.04736746237410251</v>
+        <v>-0.03384603806235599</v>
       </c>
       <c r="E29">
-        <v>0.1095797980681618</v>
+        <v>-0.1099312375790645</v>
       </c>
       <c r="F29">
-        <v>-0.06186709172672619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03102930438632722</v>
+      </c>
+      <c r="G29">
+        <v>0.1548734953976602</v>
+      </c>
+      <c r="H29">
+        <v>-0.2749707981428464</v>
+      </c>
+      <c r="I29">
+        <v>-0.06812003751755924</v>
+      </c>
+      <c r="J29">
+        <v>0.2374996733828687</v>
+      </c>
+      <c r="K29">
+        <v>-0.1130035656772413</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.02583184823924085</v>
+        <v>-0.0233896770475421</v>
       </c>
       <c r="C30">
-        <v>0.183939188481261</v>
+        <v>0.1579738762763677</v>
       </c>
       <c r="D30">
-        <v>-0.01129988080345007</v>
+        <v>-0.04552207344924123</v>
       </c>
       <c r="E30">
-        <v>0.07786487364037316</v>
+        <v>-0.05108024359312999</v>
       </c>
       <c r="F30">
-        <v>-0.005601009509025907</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02028981987085897</v>
+      </c>
+      <c r="G30">
+        <v>-0.006908610856481675</v>
+      </c>
+      <c r="H30">
+        <v>-0.02505470027903177</v>
+      </c>
+      <c r="I30">
+        <v>0.05603950657472186</v>
+      </c>
+      <c r="J30">
+        <v>-0.06263052918209142</v>
+      </c>
+      <c r="K30">
+        <v>0.03898457525413022</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>-0.004931420140396579</v>
+        <v>-0.009298550045799235</v>
       </c>
       <c r="C31">
-        <v>0.09884948296598714</v>
+        <v>0.09713537931873265</v>
       </c>
       <c r="D31">
-        <v>0.04342554932798403</v>
+        <v>-0.03347210212410882</v>
       </c>
       <c r="E31">
-        <v>-0.01345616107950917</v>
+        <v>0.02136296669376812</v>
       </c>
       <c r="F31">
-        <v>0.02413031360665355</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.007775379376295452</v>
+      </c>
+      <c r="G31">
+        <v>-0.03529058372406791</v>
+      </c>
+      <c r="H31">
+        <v>-0.04434702821626774</v>
+      </c>
+      <c r="I31">
+        <v>-0.04959203153024721</v>
+      </c>
+      <c r="J31">
+        <v>0.01934643708277071</v>
+      </c>
+      <c r="K31">
+        <v>-0.01100458331420873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.02775595262022616</v>
+        <v>-0.02240658025223484</v>
       </c>
       <c r="C32">
-        <v>0.08478942208096703</v>
+        <v>0.06980430332540279</v>
       </c>
       <c r="D32">
-        <v>-0.08664662721291465</v>
+        <v>-0.01151552024930212</v>
       </c>
       <c r="E32">
-        <v>0.1056862405022628</v>
+        <v>-0.1234759202207898</v>
       </c>
       <c r="F32">
-        <v>0.02823213511004296</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03118636346263174</v>
+      </c>
+      <c r="G32">
+        <v>0.02617815188662401</v>
+      </c>
+      <c r="H32">
+        <v>-0.1193250387048486</v>
+      </c>
+      <c r="I32">
+        <v>-0.1536231665966431</v>
+      </c>
+      <c r="J32">
+        <v>-0.1384308893856202</v>
+      </c>
+      <c r="K32">
+        <v>-0.2715957960460977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.00818389678839734</v>
+        <v>-0.01295924289242446</v>
       </c>
       <c r="C33">
-        <v>0.09185940141176958</v>
+        <v>0.1082179770093931</v>
       </c>
       <c r="D33">
-        <v>-0.005734694820425839</v>
+        <v>-0.0265658667854667</v>
       </c>
       <c r="E33">
-        <v>0.06376467471764506</v>
+        <v>-0.04139528977890873</v>
       </c>
       <c r="F33">
-        <v>-0.01322090183971405</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.007775688596965457</v>
+      </c>
+      <c r="G33">
+        <v>0.03364883062580513</v>
+      </c>
+      <c r="H33">
+        <v>-0.0586535941234733</v>
+      </c>
+      <c r="I33">
+        <v>-0.02494763344794224</v>
+      </c>
+      <c r="J33">
+        <v>-0.006669309002674585</v>
+      </c>
+      <c r="K33">
+        <v>0.01562233353914173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.002124321015135221</v>
+        <v>-0.01404336330293157</v>
       </c>
       <c r="C34">
-        <v>0.05885776417184176</v>
+        <v>0.05561381405568177</v>
       </c>
       <c r="D34">
-        <v>0.0005654990567871663</v>
+        <v>-0.01567472539982203</v>
       </c>
       <c r="E34">
-        <v>0.02443529182358826</v>
+        <v>-0.002288284682702658</v>
       </c>
       <c r="F34">
-        <v>-0.02904710912922759</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.004674772731274805</v>
+      </c>
+      <c r="G34">
+        <v>0.02863571854453575</v>
+      </c>
+      <c r="H34">
+        <v>-0.003907578430371812</v>
+      </c>
+      <c r="I34">
+        <v>-0.02670448973844072</v>
+      </c>
+      <c r="J34">
+        <v>-0.002838657106295484</v>
+      </c>
+      <c r="K34">
+        <v>0.01404853319402206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.001949408910488211</v>
+        <v>-0.007532975686285535</v>
       </c>
       <c r="C35">
-        <v>0.009871517860778436</v>
+        <v>0.03637811016383029</v>
       </c>
       <c r="D35">
-        <v>-0.01082871545714909</v>
+        <v>-0.009582812898089202</v>
       </c>
       <c r="E35">
-        <v>0.01899051573697537</v>
+        <v>-0.03444639079963388</v>
       </c>
       <c r="F35">
-        <v>-0.01908754773381225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.003072424570189788</v>
+      </c>
+      <c r="G35">
+        <v>0.06487729822576763</v>
+      </c>
+      <c r="H35">
+        <v>-0.1348119998176296</v>
+      </c>
+      <c r="I35">
+        <v>-0.08538343243884698</v>
+      </c>
+      <c r="J35">
+        <v>0.1515631638680173</v>
+      </c>
+      <c r="K35">
+        <v>-0.05769790044135628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.004752035387261448</v>
+        <v>-0.01086098864504802</v>
       </c>
       <c r="C36">
-        <v>0.04590480018473358</v>
+        <v>0.04901118165154209</v>
       </c>
       <c r="D36">
-        <v>-0.001221466451446903</v>
+        <v>-0.03506997577444233</v>
       </c>
       <c r="E36">
-        <v>0.06731725037086185</v>
+        <v>-0.02871217541203662</v>
       </c>
       <c r="F36">
-        <v>-0.007032763769613166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0005796552602033578</v>
+      </c>
+      <c r="G36">
+        <v>0.02157482039586969</v>
+      </c>
+      <c r="H36">
+        <v>-0.06703419932122846</v>
+      </c>
+      <c r="I36">
+        <v>0.006121378843153799</v>
+      </c>
+      <c r="J36">
+        <v>-0.0288956241695451</v>
+      </c>
+      <c r="K36">
+        <v>0.04632290328280628</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.01506970358895917</v>
+        <v>-0.01015552811714547</v>
       </c>
       <c r="C38">
-        <v>0.04948568850330406</v>
+        <v>0.06330092460780899</v>
       </c>
       <c r="D38">
-        <v>-0.01289557972161228</v>
+        <v>-0.02395554701613511</v>
       </c>
       <c r="E38">
-        <v>0.05893759914405441</v>
+        <v>-0.03891442336373418</v>
       </c>
       <c r="F38">
-        <v>-0.003389824219492517</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04818170652420702</v>
+      </c>
+      <c r="G38">
+        <v>0.012502318738126</v>
+      </c>
+      <c r="H38">
+        <v>-0.06215857261944732</v>
+      </c>
+      <c r="I38">
+        <v>-0.0478060971033416</v>
+      </c>
+      <c r="J38">
+        <v>-0.001644700927616849</v>
+      </c>
+      <c r="K38">
+        <v>0.02580288000524227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.0006266308408029068</v>
+        <v>-0.01166950295318608</v>
       </c>
       <c r="C39">
-        <v>0.1333459074348387</v>
+        <v>0.1312837596231682</v>
       </c>
       <c r="D39">
-        <v>-0.02317264842465899</v>
+        <v>-0.04092763373432376</v>
       </c>
       <c r="E39">
-        <v>0.07085207557310386</v>
+        <v>-0.02502925607710804</v>
       </c>
       <c r="F39">
-        <v>-0.05774645061445127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009971249939089507</v>
+      </c>
+      <c r="G39">
+        <v>0.05677755417247227</v>
+      </c>
+      <c r="H39">
+        <v>-0.04242104415014483</v>
+      </c>
+      <c r="I39">
+        <v>0.02296700584880089</v>
+      </c>
+      <c r="J39">
+        <v>0.0006350821729505075</v>
+      </c>
+      <c r="K39">
+        <v>0.01168183801447834</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.006691235948139255</v>
+        <v>-0.01200973065060707</v>
       </c>
       <c r="C40">
-        <v>0.03052628051891194</v>
+        <v>0.06271784155095</v>
       </c>
       <c r="D40">
-        <v>-0.03885933464244783</v>
+        <v>-0.02480335784851281</v>
       </c>
       <c r="E40">
-        <v>0.1335466049133924</v>
+        <v>-0.1168756164618215</v>
       </c>
       <c r="F40">
-        <v>0.006759130948134211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.0166727996965514</v>
+      </c>
+      <c r="G40">
+        <v>0.1181616535950319</v>
+      </c>
+      <c r="H40">
+        <v>0.002719125231268175</v>
+      </c>
+      <c r="I40">
+        <v>-0.1671956889353368</v>
+      </c>
+      <c r="J40">
+        <v>0.1411333050231689</v>
+      </c>
+      <c r="K40">
+        <v>-0.01933288417420045</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.00842396255993064</v>
+        <v>-0.02017067464503671</v>
       </c>
       <c r="C41">
-        <v>0.02264100631074251</v>
+        <v>0.04898777755514678</v>
       </c>
       <c r="D41">
-        <v>0.005948490394604442</v>
+        <v>-0.009633539375730693</v>
       </c>
       <c r="E41">
-        <v>-0.01433863047745493</v>
+        <v>0.00956230934841727</v>
       </c>
       <c r="F41">
-        <v>0.007600870668875367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.006572051745640032</v>
+      </c>
+      <c r="G41">
+        <v>0.009566428293126733</v>
+      </c>
+      <c r="H41">
+        <v>-0.02719420193076074</v>
+      </c>
+      <c r="I41">
+        <v>-0.06588432076767908</v>
+      </c>
+      <c r="J41">
+        <v>0.03381268404222948</v>
+      </c>
+      <c r="K41">
+        <v>-0.008997438513967853</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.0001729317686421617</v>
+        <v>-0.01282224997526709</v>
       </c>
       <c r="C43">
-        <v>0.01452009511671419</v>
+        <v>0.04161523804130989</v>
       </c>
       <c r="D43">
-        <v>-0.01230866325754766</v>
+        <v>-0.01977898021684484</v>
       </c>
       <c r="E43">
-        <v>0.03325127656687664</v>
+        <v>-0.01368764333567153</v>
       </c>
       <c r="F43">
-        <v>-0.02262890168599834</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.01423661299986764</v>
+      </c>
+      <c r="G43">
+        <v>0.02359153462175544</v>
+      </c>
+      <c r="H43">
+        <v>-0.04570105305110053</v>
+      </c>
+      <c r="I43">
+        <v>-0.03146831607641636</v>
+      </c>
+      <c r="J43">
+        <v>0.03714026276362008</v>
+      </c>
+      <c r="K43">
+        <v>-0.008687116353737648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.01739866211645881</v>
+        <v>-0.005914618736482221</v>
       </c>
       <c r="C44">
-        <v>0.07969369032219335</v>
+        <v>0.08618053367979168</v>
       </c>
       <c r="D44">
-        <v>-0.06926692925891738</v>
+        <v>-0.03535934431236568</v>
       </c>
       <c r="E44">
-        <v>0.1007593928014855</v>
+        <v>-0.09174975918058674</v>
       </c>
       <c r="F44">
-        <v>-0.02057140874607356</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.02061610863238393</v>
+      </c>
+      <c r="G44">
+        <v>0.0314827780417116</v>
+      </c>
+      <c r="H44">
+        <v>-0.0420276369299434</v>
+      </c>
+      <c r="I44">
+        <v>0.07214403107192079</v>
+      </c>
+      <c r="J44">
+        <v>-0.01610771625208021</v>
+      </c>
+      <c r="K44">
+        <v>0.02700751535592543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.0004033001558220259</v>
+        <v>-0.002962271932123837</v>
       </c>
       <c r="C46">
-        <v>0.06095516522266203</v>
+        <v>0.06592880195405568</v>
       </c>
       <c r="D46">
-        <v>-0.02616695447782148</v>
+        <v>-0.02016649136733493</v>
       </c>
       <c r="E46">
-        <v>0.06637665592863286</v>
+        <v>-0.02916566919860883</v>
       </c>
       <c r="F46">
-        <v>-0.0457395171535802</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.001360666100885568</v>
+      </c>
+      <c r="G46">
+        <v>0.05612011383710935</v>
+      </c>
+      <c r="H46">
+        <v>-0.1129012783040959</v>
+      </c>
+      <c r="I46">
+        <v>-0.04175579959941781</v>
+      </c>
+      <c r="J46">
+        <v>0.09050202812441406</v>
+      </c>
+      <c r="K46">
+        <v>-0.01291565226116101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.01052002033035984</v>
+        <v>-0.02333505547957983</v>
       </c>
       <c r="C47">
-        <v>0.1090117933247246</v>
+        <v>0.09548446824565288</v>
       </c>
       <c r="D47">
-        <v>0.02461963764833679</v>
+        <v>-0.03125052233898562</v>
       </c>
       <c r="E47">
-        <v>-0.03268354426397206</v>
+        <v>0.01672428638682366</v>
       </c>
       <c r="F47">
-        <v>0.02237799733250762</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003957996806349707</v>
+      </c>
+      <c r="G47">
+        <v>-0.007575476444159234</v>
+      </c>
+      <c r="H47">
+        <v>-0.08431816490820498</v>
+      </c>
+      <c r="I47">
+        <v>-0.02716543975442494</v>
+      </c>
+      <c r="J47">
+        <v>0.007519949391078741</v>
+      </c>
+      <c r="K47">
+        <v>-0.01975712684149191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.01234275737928755</v>
+        <v>-0.0181128125470049</v>
       </c>
       <c r="C48">
-        <v>0.05169667535167793</v>
+        <v>0.05683715508458975</v>
       </c>
       <c r="D48">
-        <v>0.02047831865907316</v>
+        <v>-0.04572908219874468</v>
       </c>
       <c r="E48">
-        <v>0.07244196930603804</v>
+        <v>-0.01789437977681214</v>
       </c>
       <c r="F48">
-        <v>-0.0165536436288254</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.002465702419555515</v>
+      </c>
+      <c r="G48">
+        <v>0.02178148474473654</v>
+      </c>
+      <c r="H48">
+        <v>-0.1099160353323514</v>
+      </c>
+      <c r="I48">
+        <v>0.02401663419214536</v>
+      </c>
+      <c r="J48">
+        <v>-0.06752121161056521</v>
+      </c>
+      <c r="K48">
+        <v>0.04885082681915989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.007427479678012282</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.01520847150277235</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002979284719222853</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.0247143546457699</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.002244809409009996</v>
+      </c>
+      <c r="G49">
+        <v>0.01576097699999919</v>
+      </c>
+      <c r="H49">
+        <v>0.0142680697089115</v>
+      </c>
+      <c r="I49">
+        <v>0.03424908656935379</v>
+      </c>
+      <c r="J49">
+        <v>0.01373593976320026</v>
+      </c>
+      <c r="K49">
+        <v>0.0158484770062522</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.006390179580724102</v>
+        <v>-0.0138540772411529</v>
       </c>
       <c r="C50">
-        <v>0.09492391631895876</v>
+        <v>0.0892009797939808</v>
       </c>
       <c r="D50">
-        <v>0.01589430712705756</v>
+        <v>-0.01835761061490779</v>
       </c>
       <c r="E50">
-        <v>-0.007326433388752131</v>
+        <v>0.007661773160937557</v>
       </c>
       <c r="F50">
-        <v>0.02244026770712741</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.007296685249066212</v>
+      </c>
+      <c r="G50">
+        <v>-0.02779244042185275</v>
+      </c>
+      <c r="H50">
+        <v>-0.06465143701963183</v>
+      </c>
+      <c r="I50">
+        <v>-0.06150538642434427</v>
+      </c>
+      <c r="J50">
+        <v>-0.009073788131692706</v>
+      </c>
+      <c r="K50">
+        <v>-0.04307366370947353</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.005731828209828692</v>
+        <v>0.005279339253779334</v>
       </c>
       <c r="C51">
-        <v>0.05738806503609534</v>
+        <v>0.04046785379550192</v>
       </c>
       <c r="D51">
-        <v>-0.06567038388186069</v>
+        <v>-0.01270273189469856</v>
       </c>
       <c r="E51">
-        <v>0.07027765124970786</v>
+        <v>-0.04650786161669701</v>
       </c>
       <c r="F51">
-        <v>-0.009348729352705767</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.005283194321950108</v>
+      </c>
+      <c r="G51">
+        <v>0.02738476329446113</v>
+      </c>
+      <c r="H51">
+        <v>-0.09400428621395029</v>
+      </c>
+      <c r="I51">
+        <v>0.07992890896485809</v>
+      </c>
+      <c r="J51">
+        <v>-0.09162711447652271</v>
+      </c>
+      <c r="K51">
+        <v>0.01027092982574957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.03809842358936588</v>
+        <v>-0.05315330902120578</v>
       </c>
       <c r="C53">
-        <v>0.1620112125086634</v>
+        <v>0.1456774501222811</v>
       </c>
       <c r="D53">
-        <v>0.08968078096310238</v>
+        <v>-0.04903069122404367</v>
       </c>
       <c r="E53">
-        <v>-0.0540544414436617</v>
+        <v>0.09567967332451276</v>
       </c>
       <c r="F53">
-        <v>-0.01595296677371141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01423599700987568</v>
+      </c>
+      <c r="G53">
+        <v>-0.05817543178230884</v>
+      </c>
+      <c r="H53">
+        <v>0.006486648014579495</v>
+      </c>
+      <c r="I53">
+        <v>-0.06878118156573031</v>
+      </c>
+      <c r="J53">
+        <v>-0.03205536654769193</v>
+      </c>
+      <c r="K53">
+        <v>-0.0272520350699102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.009267476484736328</v>
+        <v>-0.01557627184736642</v>
       </c>
       <c r="C54">
-        <v>0.06468366901940943</v>
+        <v>0.07359758496447806</v>
       </c>
       <c r="D54">
-        <v>-0.01044438737703377</v>
+        <v>-0.002632504390858806</v>
       </c>
       <c r="E54">
-        <v>0.01269853913102247</v>
+        <v>-0.001644092457728113</v>
       </c>
       <c r="F54">
-        <v>-0.03243565313002673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.00048563183651552</v>
+      </c>
+      <c r="G54">
+        <v>0.02903041005021224</v>
+      </c>
+      <c r="H54">
+        <v>-0.06787579040065395</v>
+      </c>
+      <c r="I54">
+        <v>-0.01906162143178012</v>
+      </c>
+      <c r="J54">
+        <v>0.03841742935616072</v>
+      </c>
+      <c r="K54">
+        <v>-0.02927681834372896</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.02543619961412762</v>
+        <v>-0.02944736268797969</v>
       </c>
       <c r="C55">
-        <v>0.1242013180439195</v>
+        <v>0.105265875475974</v>
       </c>
       <c r="D55">
-        <v>0.08734557283560164</v>
+        <v>-0.05030937846344706</v>
       </c>
       <c r="E55">
-        <v>-0.01817669163091617</v>
+        <v>0.07916244643668131</v>
       </c>
       <c r="F55">
-        <v>0.01250831135844958</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02036378652728106</v>
+      </c>
+      <c r="G55">
+        <v>-0.02527022403705651</v>
+      </c>
+      <c r="H55">
+        <v>-0.003258039834611825</v>
+      </c>
+      <c r="I55">
+        <v>-0.01814804054924552</v>
+      </c>
+      <c r="J55">
+        <v>-0.01073595351529237</v>
+      </c>
+      <c r="K55">
+        <v>-0.01577006930288697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.03328513517172425</v>
+        <v>-0.04162317852490387</v>
       </c>
       <c r="C56">
-        <v>0.197629694649596</v>
+        <v>0.1739860799727724</v>
       </c>
       <c r="D56">
-        <v>0.1130729473537888</v>
+        <v>-0.06932206434616868</v>
       </c>
       <c r="E56">
-        <v>-0.09748854049480725</v>
+        <v>0.135509534433026</v>
       </c>
       <c r="F56">
-        <v>0.02491939831834679</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.02597693455158883</v>
+      </c>
+      <c r="G56">
+        <v>-0.1046858674048408</v>
+      </c>
+      <c r="H56">
+        <v>0.02106758348970945</v>
+      </c>
+      <c r="I56">
+        <v>-0.01788905268693023</v>
+      </c>
+      <c r="J56">
+        <v>-0.03995088487156376</v>
+      </c>
+      <c r="K56">
+        <v>0.02429253727150349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.02503141205097963</v>
+        <v>-0.01501030308667933</v>
       </c>
       <c r="C58">
-        <v>0.194602373784252</v>
+        <v>0.1711452558437055</v>
       </c>
       <c r="D58">
-        <v>-0.250603225389879</v>
+        <v>0.003298669580867202</v>
       </c>
       <c r="E58">
-        <v>0.135827043222927</v>
+        <v>-0.2773505023372327</v>
       </c>
       <c r="F58">
-        <v>0.06351733523105377</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.08409329691459781</v>
+      </c>
+      <c r="G58">
+        <v>-0.1689947709802514</v>
+      </c>
+      <c r="H58">
+        <v>-0.03826859306828322</v>
+      </c>
+      <c r="I58">
+        <v>0.2733044416184668</v>
+      </c>
+      <c r="J58">
+        <v>-0.2880858546857119</v>
+      </c>
+      <c r="K58">
+        <v>-0.1772060074735136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.2754423220197026</v>
+        <v>-0.2826485569580625</v>
       </c>
       <c r="C59">
-        <v>-0.009001915875473665</v>
+        <v>-0.03679620421797368</v>
       </c>
       <c r="D59">
-        <v>-0.03226755661903023</v>
+        <v>-0.002222668474986977</v>
       </c>
       <c r="E59">
-        <v>0.01326833732110581</v>
+        <v>-0.03978169566730707</v>
       </c>
       <c r="F59">
-        <v>0.05492131700418743</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01763653574794987</v>
+      </c>
+      <c r="G59">
+        <v>-0.02151852851312352</v>
+      </c>
+      <c r="H59">
+        <v>0.03623826363011709</v>
+      </c>
+      <c r="I59">
+        <v>-0.05578436398027661</v>
+      </c>
+      <c r="J59">
+        <v>-0.02215409558349525</v>
+      </c>
+      <c r="K59">
+        <v>0.04024999097197668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.1102732775465119</v>
+        <v>-0.1463953646515295</v>
       </c>
       <c r="C60">
-        <v>0.144875152750146</v>
+        <v>0.1539988966868066</v>
       </c>
       <c r="D60">
-        <v>0.04071511492164127</v>
+        <v>-0.03746882480885037</v>
       </c>
       <c r="E60">
-        <v>0.04870537500589455</v>
+        <v>0.02933045341511253</v>
       </c>
       <c r="F60">
-        <v>-0.1781572065704099</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05125968605237581</v>
+      </c>
+      <c r="G60">
+        <v>0.2511484910641865</v>
+      </c>
+      <c r="H60">
+        <v>0.2709760078010683</v>
+      </c>
+      <c r="I60">
+        <v>0.06203028648558297</v>
+      </c>
+      <c r="J60">
+        <v>0.05585831283618689</v>
+      </c>
+      <c r="K60">
+        <v>0.0194500695036503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.00346952437420893</v>
+        <v>-0.0168882220240068</v>
       </c>
       <c r="C61">
-        <v>0.09570797136110487</v>
+        <v>0.1046503853673966</v>
       </c>
       <c r="D61">
-        <v>0.01846938594492914</v>
+        <v>-0.04186193354358624</v>
       </c>
       <c r="E61">
-        <v>0.0491889164700849</v>
+        <v>0.00233311732165138</v>
       </c>
       <c r="F61">
-        <v>-0.05749990445801459</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.003960574120067248</v>
+      </c>
+      <c r="G61">
+        <v>0.05380535596744102</v>
+      </c>
+      <c r="H61">
+        <v>-0.0454011130571568</v>
+      </c>
+      <c r="I61">
+        <v>-0.01681856248423503</v>
+      </c>
+      <c r="J61">
+        <v>0.02720767132982537</v>
+      </c>
+      <c r="K61">
+        <v>0.02421141923727364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0005177561437748919</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004959202895707505</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.004731447089606052</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.01433933330040005</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.007082957407060336</v>
+      </c>
+      <c r="G62">
+        <v>0.01834835846020621</v>
+      </c>
+      <c r="H62">
+        <v>-0.01400657654092836</v>
+      </c>
+      <c r="I62">
+        <v>0.0006882382378342547</v>
+      </c>
+      <c r="J62">
+        <v>0.01145123318762195</v>
+      </c>
+      <c r="K62">
+        <v>0.003487372353850344</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-8.27489667016184e-05</v>
+        <v>-0.02100991182933006</v>
       </c>
       <c r="C63">
-        <v>0.0638491036284299</v>
+        <v>0.0752582597334578</v>
       </c>
       <c r="D63">
-        <v>-0.001307890310978699</v>
+        <v>-0.04304389284344318</v>
       </c>
       <c r="E63">
-        <v>0.03269823774185717</v>
+        <v>-0.01114198265912193</v>
       </c>
       <c r="F63">
-        <v>-0.0371952630718702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.004086757255219361</v>
+      </c>
+      <c r="G63">
+        <v>0.03291434977194557</v>
+      </c>
+      <c r="H63">
+        <v>-0.05560624681838913</v>
+      </c>
+      <c r="I63">
+        <v>-0.0314750027428661</v>
+      </c>
+      <c r="J63">
+        <v>0.01217663924132268</v>
+      </c>
+      <c r="K63">
+        <v>0.04912172779764532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.009530228286976408</v>
+        <v>-0.01739389471041345</v>
       </c>
       <c r="C64">
-        <v>0.1159111559162654</v>
+        <v>0.1013334572881207</v>
       </c>
       <c r="D64">
-        <v>0.0384360626843531</v>
+        <v>-0.02745623456931295</v>
       </c>
       <c r="E64">
-        <v>0.03208021254591925</v>
+        <v>-0.02125851910613738</v>
       </c>
       <c r="F64">
-        <v>-0.01570162881068679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.02649988964775839</v>
+      </c>
+      <c r="G64">
+        <v>0.001630947861229848</v>
+      </c>
+      <c r="H64">
+        <v>-0.03183098197718578</v>
+      </c>
+      <c r="I64">
+        <v>-0.0404035016197342</v>
+      </c>
+      <c r="J64">
+        <v>0.003291960193435931</v>
+      </c>
+      <c r="K64">
+        <v>0.02981485058186865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.01959105521665969</v>
+        <v>-0.0276300022104017</v>
       </c>
       <c r="C65">
-        <v>0.06900907759659833</v>
+        <v>0.087158556539017</v>
       </c>
       <c r="D65">
-        <v>-0.04229783034789228</v>
+        <v>-0.001958674309456078</v>
       </c>
       <c r="E65">
-        <v>0.06013453344813404</v>
+        <v>-0.06241957817277428</v>
       </c>
       <c r="F65">
-        <v>-0.05592839068864201</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.02516641141650171</v>
+      </c>
+      <c r="G65">
+        <v>0.1091499358883457</v>
+      </c>
+      <c r="H65">
+        <v>0.01854492147901363</v>
+      </c>
+      <c r="I65">
+        <v>0.06695699099804346</v>
+      </c>
+      <c r="J65">
+        <v>0.006132554530382727</v>
+      </c>
+      <c r="K65">
+        <v>0.06233941410199289</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.00111764870156478</v>
+        <v>-0.008966940715434525</v>
       </c>
       <c r="C66">
-        <v>0.1568276023052521</v>
+        <v>0.1597543635630048</v>
       </c>
       <c r="D66">
-        <v>-0.06202275239625953</v>
+        <v>-0.0264124547273624</v>
       </c>
       <c r="E66">
-        <v>0.08544190499378007</v>
+        <v>-0.04719948512878459</v>
       </c>
       <c r="F66">
-        <v>-0.04476444366501657</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.002528308170757878</v>
+      </c>
+      <c r="G66">
+        <v>0.04339644053480647</v>
+      </c>
+      <c r="H66">
+        <v>-0.04710840584641844</v>
+      </c>
+      <c r="I66">
+        <v>0.02223907676798505</v>
+      </c>
+      <c r="J66">
+        <v>0.000798331615787294</v>
+      </c>
+      <c r="K66">
+        <v>0.02229214691975935</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.01876098458190962</v>
+        <v>-0.01982305663760974</v>
       </c>
       <c r="C67">
-        <v>0.04296351147494087</v>
+        <v>0.05658279577291229</v>
       </c>
       <c r="D67">
-        <v>0.03400981899118543</v>
+        <v>-0.03165989936517</v>
       </c>
       <c r="E67">
-        <v>0.03569850059394324</v>
+        <v>-0.002680905035565072</v>
       </c>
       <c r="F67">
-        <v>-0.01270256501545891</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03655542806642056</v>
+      </c>
+      <c r="G67">
+        <v>0.03442952600658877</v>
+      </c>
+      <c r="H67">
+        <v>-0.0388488816271725</v>
+      </c>
+      <c r="I67">
+        <v>-0.05383267271593976</v>
+      </c>
+      <c r="J67">
+        <v>0.0133582637484475</v>
+      </c>
+      <c r="K67">
+        <v>-0.005361203172378485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.2624356836607654</v>
+        <v>-0.2899051396831532</v>
       </c>
       <c r="C68">
-        <v>-0.02998301396783974</v>
+        <v>-0.04350987171623973</v>
       </c>
       <c r="D68">
-        <v>-0.04160489338024752</v>
+        <v>0.02428410797542075</v>
       </c>
       <c r="E68">
-        <v>0.01639813618828173</v>
+        <v>-0.06112928193746981</v>
       </c>
       <c r="F68">
-        <v>0.04750527356323104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01676755136869475</v>
+      </c>
+      <c r="G68">
+        <v>-0.04556977239230751</v>
+      </c>
+      <c r="H68">
+        <v>0.02591594291794154</v>
+      </c>
+      <c r="I68">
+        <v>-0.04327216073022233</v>
+      </c>
+      <c r="J68">
+        <v>-0.01043122559153111</v>
+      </c>
+      <c r="K68">
+        <v>0.06837376878780767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.009045724675735665</v>
+        <v>-0.008311121932203683</v>
       </c>
       <c r="C69">
-        <v>0.1072459806538603</v>
+        <v>0.07998531448027518</v>
       </c>
       <c r="D69">
-        <v>0.06021062296486112</v>
+        <v>-0.02498235392399392</v>
       </c>
       <c r="E69">
-        <v>0.005522748676760042</v>
+        <v>0.01949753897210309</v>
       </c>
       <c r="F69">
-        <v>0.01893850494742254</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.0001376272955497548</v>
+      </c>
+      <c r="G69">
+        <v>0.008082070073166452</v>
+      </c>
+      <c r="H69">
+        <v>-0.05962542554779443</v>
+      </c>
+      <c r="I69">
+        <v>-0.03393016033660996</v>
+      </c>
+      <c r="J69">
+        <v>-0.0239857717704133</v>
+      </c>
+      <c r="K69">
+        <v>-0.009177250974071708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.2873053371892528</v>
+        <v>-0.2786234013696629</v>
       </c>
       <c r="C71">
-        <v>-0.04232135244177455</v>
+        <v>-0.06772515547862552</v>
       </c>
       <c r="D71">
-        <v>-0.01646689968886468</v>
+        <v>0.01043413454270322</v>
       </c>
       <c r="E71">
-        <v>0.0004879007891771568</v>
+        <v>-0.02987305413385599</v>
       </c>
       <c r="F71">
-        <v>-0.01437891860183909</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03230107992162524</v>
+      </c>
+      <c r="G71">
+        <v>-0.01552719456192819</v>
+      </c>
+      <c r="H71">
+        <v>-0.05267528220190039</v>
+      </c>
+      <c r="I71">
+        <v>-0.04157738517385502</v>
+      </c>
+      <c r="J71">
+        <v>-0.1342797711306333</v>
+      </c>
+      <c r="K71">
+        <v>0.02182627328541972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.02783779196499629</v>
+        <v>-0.05175413745032997</v>
       </c>
       <c r="C72">
-        <v>0.1729022337777335</v>
+        <v>0.1522914763024549</v>
       </c>
       <c r="D72">
-        <v>-0.007364070177400628</v>
+        <v>-0.02256901994237458</v>
       </c>
       <c r="E72">
-        <v>0.08564864214621978</v>
+        <v>-0.007513355915929732</v>
       </c>
       <c r="F72">
-        <v>-0.08553748606249638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.005843409503952627</v>
+      </c>
+      <c r="G72">
+        <v>0.04563742680275756</v>
+      </c>
+      <c r="H72">
+        <v>0.02433574759716962</v>
+      </c>
+      <c r="I72">
+        <v>0.03736084724351925</v>
+      </c>
+      <c r="J72">
+        <v>-0.006801126548274841</v>
+      </c>
+      <c r="K72">
+        <v>-0.04164082039293875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.09017810352177548</v>
+        <v>-0.1502492891298864</v>
       </c>
       <c r="C73">
-        <v>0.1490216118216766</v>
+        <v>0.19003555830711</v>
       </c>
       <c r="D73">
-        <v>0.07617258133791294</v>
+        <v>-0.06050037856008034</v>
       </c>
       <c r="E73">
-        <v>0.06216795382166054</v>
+        <v>0.09938296549135112</v>
       </c>
       <c r="F73">
-        <v>-0.2675438942105999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06297962846591464</v>
+      </c>
+      <c r="G73">
+        <v>0.4054247856666057</v>
+      </c>
+      <c r="H73">
+        <v>0.329808272086522</v>
+      </c>
+      <c r="I73">
+        <v>0.04684194745670568</v>
+      </c>
+      <c r="J73">
+        <v>-0.1000215095030175</v>
+      </c>
+      <c r="K73">
+        <v>-0.1111167977037967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.01622459009194365</v>
+        <v>-0.03453477872282815</v>
       </c>
       <c r="C74">
-        <v>0.1187813241319531</v>
+        <v>0.1152344901817976</v>
       </c>
       <c r="D74">
-        <v>0.1038901975406424</v>
+        <v>-0.04056631590504577</v>
       </c>
       <c r="E74">
-        <v>-0.04868654567031862</v>
+        <v>0.08329899627561616</v>
       </c>
       <c r="F74">
-        <v>0.009592919103559146</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.009584164829411598</v>
+      </c>
+      <c r="G74">
+        <v>-0.03149047562273773</v>
+      </c>
+      <c r="H74">
+        <v>-0.01080341943778428</v>
+      </c>
+      <c r="I74">
+        <v>-0.01778810965781083</v>
+      </c>
+      <c r="J74">
+        <v>-0.02332511639936855</v>
+      </c>
+      <c r="K74">
+        <v>0.02735532523572489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.06624062706241254</v>
+        <v>-0.06026137388716484</v>
       </c>
       <c r="C75">
-        <v>0.2046709433633136</v>
+        <v>0.1951252997183487</v>
       </c>
       <c r="D75">
-        <v>0.2000024745966497</v>
+        <v>-0.06862389014173122</v>
       </c>
       <c r="E75">
-        <v>-0.1633496121837395</v>
+        <v>0.2131545203378453</v>
       </c>
       <c r="F75">
-        <v>0.05655352340203804</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.04297396115360856</v>
+      </c>
+      <c r="G75">
+        <v>-0.1660952180115635</v>
+      </c>
+      <c r="H75">
+        <v>0.0271481760781205</v>
+      </c>
+      <c r="I75">
+        <v>-0.108972722889966</v>
+      </c>
+      <c r="J75">
+        <v>-0.02457231780783559</v>
+      </c>
+      <c r="K75">
+        <v>-0.003999154212842228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.03312994021259259</v>
+        <v>-0.03875227743518877</v>
       </c>
       <c r="C76">
-        <v>0.1453362879844433</v>
+        <v>0.1409094940953223</v>
       </c>
       <c r="D76">
-        <v>0.1051315618616255</v>
+        <v>-0.06487218735417263</v>
       </c>
       <c r="E76">
-        <v>-0.05661737152501359</v>
+        <v>0.1127863883140305</v>
       </c>
       <c r="F76">
-        <v>-0.005612951620553495</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.008528049993151572</v>
+      </c>
+      <c r="G76">
+        <v>-0.03362107390331864</v>
+      </c>
+      <c r="H76">
+        <v>-0.002119446294647491</v>
+      </c>
+      <c r="I76">
+        <v>-0.05060670866556248</v>
+      </c>
+      <c r="J76">
+        <v>-0.007519890687954834</v>
+      </c>
+      <c r="K76">
+        <v>0.1247828626814438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.07870249254526207</v>
+        <v>-0.04764340263760147</v>
       </c>
       <c r="C77">
-        <v>0.178867171894711</v>
+        <v>0.2819767518852713</v>
       </c>
       <c r="D77">
-        <v>-0.5937780869841275</v>
+        <v>0.9436574343270968</v>
       </c>
       <c r="E77">
-        <v>-0.6780339579444025</v>
+        <v>0.1005469228610545</v>
       </c>
       <c r="F77">
-        <v>-0.2715279074745159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01620240056930893</v>
+      </c>
+      <c r="G77">
+        <v>0.01281470250969028</v>
+      </c>
+      <c r="H77">
+        <v>-0.04393067011626477</v>
+      </c>
+      <c r="I77">
+        <v>-0.007131594664315125</v>
+      </c>
+      <c r="J77">
+        <v>0.003943714907609039</v>
+      </c>
+      <c r="K77">
+        <v>0.01157749655732625</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.03189495602129628</v>
+        <v>-0.03059075881211046</v>
       </c>
       <c r="C78">
-        <v>0.1624397400798636</v>
+        <v>0.1262104602778174</v>
       </c>
       <c r="D78">
-        <v>-0.03084324022309204</v>
+        <v>-0.07469343583485361</v>
       </c>
       <c r="E78">
-        <v>0.08373310830940024</v>
+        <v>-0.01058525939240426</v>
       </c>
       <c r="F78">
-        <v>0.1442263808236038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03983402050630314</v>
+      </c>
+      <c r="G78">
+        <v>-0.08462078865751251</v>
+      </c>
+      <c r="H78">
+        <v>-0.1196300997220958</v>
+      </c>
+      <c r="I78">
+        <v>0.4415953261271062</v>
+      </c>
+      <c r="J78">
+        <v>-0.2381786079909351</v>
+      </c>
+      <c r="K78">
+        <v>0.1335731429591438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.04977767592167918</v>
+        <v>-0.05899165795539557</v>
       </c>
       <c r="C79">
-        <v>0.2431593501333385</v>
+        <v>0.1837327706018813</v>
       </c>
       <c r="D79">
-        <v>0.2065263332890594</v>
+        <v>-0.06470376845840801</v>
       </c>
       <c r="E79">
-        <v>-0.1600723732116286</v>
+        <v>0.1887776958622329</v>
       </c>
       <c r="F79">
-        <v>0.1650532425015199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.02530744657806908</v>
+      </c>
+      <c r="G79">
+        <v>-0.2185264267509353</v>
+      </c>
+      <c r="H79">
+        <v>-0.02876204448468727</v>
+      </c>
+      <c r="I79">
+        <v>-0.08748831003051874</v>
+      </c>
+      <c r="J79">
+        <v>-0.09568691201651737</v>
+      </c>
+      <c r="K79">
+        <v>-0.06723359957343369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.002319109276892953</v>
+        <v>-0.01358513178018095</v>
       </c>
       <c r="C80">
-        <v>0.0570633722016435</v>
+        <v>0.05592131052023636</v>
       </c>
       <c r="D80">
-        <v>0.00167735579174134</v>
+        <v>-0.03429990109941024</v>
       </c>
       <c r="E80">
-        <v>0.0271196776912524</v>
+        <v>-0.04651875658355972</v>
       </c>
       <c r="F80">
-        <v>-0.01149247321018429</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.05219709099086805</v>
+      </c>
+      <c r="G80">
+        <v>0.05407843861667845</v>
+      </c>
+      <c r="H80">
+        <v>0.03909836420881366</v>
+      </c>
+      <c r="I80">
+        <v>-0.07853431596111654</v>
+      </c>
+      <c r="J80">
+        <v>0.01288396933415637</v>
+      </c>
+      <c r="K80">
+        <v>-0.01279594859170502</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.01867347387917132</v>
+        <v>-0.01686755708175386</v>
       </c>
       <c r="C81">
-        <v>0.1263567794626943</v>
+        <v>0.1168709194332397</v>
       </c>
       <c r="D81">
-        <v>0.143940313849255</v>
+        <v>-0.04443490808342531</v>
       </c>
       <c r="E81">
-        <v>-0.1100712430005384</v>
+        <v>0.1034426485228395</v>
       </c>
       <c r="F81">
-        <v>0.03474874121032501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.008001190320265431</v>
+      </c>
+      <c r="G81">
+        <v>-0.09226084783458396</v>
+      </c>
+      <c r="H81">
+        <v>-0.05804613430763582</v>
+      </c>
+      <c r="I81">
+        <v>-0.09537400521534481</v>
+      </c>
+      <c r="J81">
+        <v>-0.04056473879099791</v>
+      </c>
+      <c r="K81">
+        <v>0.04983428649015042</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.03867435152563049</v>
+        <v>-0.04478823140448571</v>
       </c>
       <c r="C82">
-        <v>0.1550651160730878</v>
+        <v>0.1317618038039061</v>
       </c>
       <c r="D82">
-        <v>0.148839847402667</v>
+        <v>-0.06881501642412505</v>
       </c>
       <c r="E82">
-        <v>-0.07070056493858022</v>
+        <v>0.1234559582257399</v>
       </c>
       <c r="F82">
-        <v>-0.002179535687331021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.020189803926666</v>
+      </c>
+      <c r="G82">
+        <v>-0.06562130063858265</v>
+      </c>
+      <c r="H82">
+        <v>-0.02277087719877606</v>
+      </c>
+      <c r="I82">
+        <v>-0.067796739307716</v>
+      </c>
+      <c r="J82">
+        <v>-0.04080195761887663</v>
+      </c>
+      <c r="K82">
+        <v>0.05145476010026142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.000373730147425786</v>
+        <v>-0.007705952832785098</v>
       </c>
       <c r="C83">
-        <v>0.04535364345380705</v>
+        <v>0.01661644976339702</v>
       </c>
       <c r="D83">
-        <v>-0.1714008285443073</v>
+        <v>0.03818247920979101</v>
       </c>
       <c r="E83">
-        <v>-0.1458465799329767</v>
+        <v>-0.1725043534052578</v>
       </c>
       <c r="F83">
-        <v>0.6976214030024142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.9350787291016612</v>
+      </c>
+      <c r="G83">
+        <v>-0.1648752340218928</v>
+      </c>
+      <c r="H83">
+        <v>0.08120920383830885</v>
+      </c>
+      <c r="I83">
+        <v>-0.04950541834272429</v>
+      </c>
+      <c r="J83">
+        <v>-0.009356938561945293</v>
+      </c>
+      <c r="K83">
+        <v>0.1025970058154524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.0005588306397100284</v>
+        <v>0.0007937073212342337</v>
       </c>
       <c r="C84">
-        <v>0.03387254101828853</v>
+        <v>0.03641565189401928</v>
       </c>
       <c r="D84">
-        <v>-0.03178878276669101</v>
+        <v>-0.05550439428823441</v>
       </c>
       <c r="E84">
-        <v>0.08618064396775706</v>
+        <v>-0.07543122707118478</v>
       </c>
       <c r="F84">
-        <v>0.007534038325323209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.04701828785321732</v>
+      </c>
+      <c r="G84">
+        <v>-0.04860000600303831</v>
+      </c>
+      <c r="H84">
+        <v>-0.08636458071029038</v>
+      </c>
+      <c r="I84">
+        <v>0.01753320260220233</v>
+      </c>
+      <c r="J84">
+        <v>0.09820584695805369</v>
+      </c>
+      <c r="K84">
+        <v>0.1752275308086833</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.03013182133766377</v>
+        <v>-0.02974266210566613</v>
       </c>
       <c r="C85">
-        <v>0.1718697792227043</v>
+        <v>0.1402481269251917</v>
       </c>
       <c r="D85">
-        <v>0.1662470304689985</v>
+        <v>-0.07221309765117868</v>
       </c>
       <c r="E85">
-        <v>-0.1230688968766706</v>
+        <v>0.1838011795719644</v>
       </c>
       <c r="F85">
-        <v>0.1008043932349666</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01112271557848275</v>
+      </c>
+      <c r="G85">
+        <v>-0.1311670145862527</v>
+      </c>
+      <c r="H85">
+        <v>0.003502676621485675</v>
+      </c>
+      <c r="I85">
+        <v>-0.1079808050915117</v>
+      </c>
+      <c r="J85">
+        <v>-0.03668910448802752</v>
+      </c>
+      <c r="K85">
+        <v>0.07630666298662256</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.04188899112269508</v>
+        <v>-0.02180783227933659</v>
       </c>
       <c r="C86">
-        <v>0.05020647216652126</v>
+        <v>0.0726514953375727</v>
       </c>
       <c r="D86">
-        <v>-0.05612807045234886</v>
+        <v>-0.01962668056422853</v>
       </c>
       <c r="E86">
-        <v>0.02179182605454331</v>
+        <v>-0.05269079740629754</v>
       </c>
       <c r="F86">
-        <v>-0.04143281716464842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03444999127798408</v>
+      </c>
+      <c r="G86">
+        <v>-0.08037975431312355</v>
+      </c>
+      <c r="H86">
+        <v>-0.07384033429238794</v>
+      </c>
+      <c r="I86">
+        <v>0.01865268426661725</v>
+      </c>
+      <c r="J86">
+        <v>-0.2032789310786296</v>
+      </c>
+      <c r="K86">
+        <v>-0.06531254915972437</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.03742613029069014</v>
+        <v>-0.02000670331139717</v>
       </c>
       <c r="C87">
-        <v>0.1324538582527553</v>
+        <v>0.1229520080663027</v>
       </c>
       <c r="D87">
-        <v>-0.0998343294487449</v>
+        <v>0.00305270903726585</v>
       </c>
       <c r="E87">
-        <v>0.1040091655597369</v>
+        <v>-0.09876150788589079</v>
       </c>
       <c r="F87">
-        <v>-0.007793904464171563</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.03049943905246098</v>
+      </c>
+      <c r="G87">
+        <v>-0.004736686005557808</v>
+      </c>
+      <c r="H87">
+        <v>-0.03045391579646435</v>
+      </c>
+      <c r="I87">
+        <v>0.1787579624704021</v>
+      </c>
+      <c r="J87">
+        <v>0.03353046890223551</v>
+      </c>
+      <c r="K87">
+        <v>0.1956936353273225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.01418483589288307</v>
+        <v>-0.03547877458245698</v>
       </c>
       <c r="C88">
-        <v>0.07152812690307324</v>
+        <v>0.08137996068105591</v>
       </c>
       <c r="D88">
-        <v>0.0780952777704539</v>
+        <v>-0.03503598781815612</v>
       </c>
       <c r="E88">
-        <v>-0.015436684955828</v>
+        <v>0.02260270950884226</v>
       </c>
       <c r="F88">
-        <v>-0.02654831385837924</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.003166072716229565</v>
+      </c>
+      <c r="G88">
+        <v>0.01861797721202168</v>
+      </c>
+      <c r="H88">
+        <v>0.007822133433818138</v>
+      </c>
+      <c r="I88">
+        <v>-0.09057337503488594</v>
+      </c>
+      <c r="J88">
+        <v>0.02795537810806052</v>
+      </c>
+      <c r="K88">
+        <v>-0.02122697443998181</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.4052013058608764</v>
+        <v>-0.3894841048181529</v>
       </c>
       <c r="C89">
-        <v>-0.09322274677350077</v>
+        <v>-0.117938642920483</v>
       </c>
       <c r="D89">
-        <v>0.01520093727349649</v>
+        <v>0.03088489024248934</v>
       </c>
       <c r="E89">
-        <v>0.1835417217101792</v>
+        <v>-0.06262433377875384</v>
       </c>
       <c r="F89">
-        <v>0.08781966197243095</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.04676057723431239</v>
+      </c>
+      <c r="G89">
+        <v>-0.01765265982349929</v>
+      </c>
+      <c r="H89">
+        <v>-0.07075520251793596</v>
+      </c>
+      <c r="I89">
+        <v>0.4889678029347352</v>
+      </c>
+      <c r="J89">
+        <v>0.4259208122976306</v>
+      </c>
+      <c r="K89">
+        <v>-0.06921304713770594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.3013953213393993</v>
+        <v>-0.3143793925654701</v>
       </c>
       <c r="C90">
-        <v>-0.03965579175227231</v>
+        <v>-0.06693521699935637</v>
       </c>
       <c r="D90">
-        <v>-0.03028896225388444</v>
+        <v>0.0003642171218749873</v>
       </c>
       <c r="E90">
-        <v>-0.0002331533184511455</v>
+        <v>-0.03049513862145363</v>
       </c>
       <c r="F90">
-        <v>0.04145017615405661</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.007304374714714372</v>
+      </c>
+      <c r="G90">
+        <v>-0.02167453434083782</v>
+      </c>
+      <c r="H90">
+        <v>0.01598127933388176</v>
+      </c>
+      <c r="I90">
+        <v>-0.09645607105405483</v>
+      </c>
+      <c r="J90">
+        <v>-0.05640121879943248</v>
+      </c>
+      <c r="K90">
+        <v>0.06911852517840576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.0380348864831254</v>
+        <v>-0.05122316685422255</v>
       </c>
       <c r="C91">
-        <v>0.1375288670615336</v>
+        <v>0.1165050479000127</v>
       </c>
       <c r="D91">
-        <v>0.09436241961612572</v>
+        <v>-0.03669880503053247</v>
       </c>
       <c r="E91">
-        <v>-0.0780921734744936</v>
+        <v>0.09039053197503484</v>
       </c>
       <c r="F91">
-        <v>0.04781978067095415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.04311855124957137</v>
+      </c>
+      <c r="G91">
+        <v>-0.07107575218993749</v>
+      </c>
+      <c r="H91">
+        <v>0.0009113590278202699</v>
+      </c>
+      <c r="I91">
+        <v>-0.04396581819224117</v>
+      </c>
+      <c r="J91">
+        <v>0.0124381678963742</v>
+      </c>
+      <c r="K91">
+        <v>0.005371325123227497</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.369432305022698</v>
+        <v>-0.3554297277192708</v>
       </c>
       <c r="C92">
-        <v>-0.09236415307495908</v>
+        <v>-0.1153191219818485</v>
       </c>
       <c r="D92">
-        <v>-0.01683135818604558</v>
+        <v>0.0332175477537498</v>
       </c>
       <c r="E92">
-        <v>0.006508273874788648</v>
+        <v>-0.0555425591068501</v>
       </c>
       <c r="F92">
-        <v>-0.06088958898549343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.08454160708270798</v>
+      </c>
+      <c r="G92">
+        <v>-0.03365106173962735</v>
+      </c>
+      <c r="H92">
+        <v>-0.05465981485752953</v>
+      </c>
+      <c r="I92">
+        <v>-0.1353102816789869</v>
+      </c>
+      <c r="J92">
+        <v>-0.0750274257623391</v>
+      </c>
+      <c r="K92">
+        <v>-0.06383104890066851</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.3335078151999423</v>
+        <v>-0.3227789073257644</v>
       </c>
       <c r="C93">
-        <v>-0.08526259493400637</v>
+        <v>-0.1142872599892917</v>
       </c>
       <c r="D93">
-        <v>0.02370096320850585</v>
+        <v>-0.007373158698564039</v>
       </c>
       <c r="E93">
-        <v>-0.001746283155650159</v>
+        <v>-0.004360527629985664</v>
       </c>
       <c r="F93">
-        <v>0.01756058224014812</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01401815499308461</v>
+      </c>
+      <c r="G93">
+        <v>-0.04358135966206302</v>
+      </c>
+      <c r="H93">
+        <v>-0.0481178206645162</v>
+      </c>
+      <c r="I93">
+        <v>-0.06110266695843444</v>
+      </c>
+      <c r="J93">
+        <v>-0.09685783909483044</v>
+      </c>
+      <c r="K93">
+        <v>0.03770581504647607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.07199892953744701</v>
+        <v>-0.07868516299563641</v>
       </c>
       <c r="C94">
-        <v>0.218768258983861</v>
+        <v>0.1916893052430529</v>
       </c>
       <c r="D94">
-        <v>0.2404378793958952</v>
+        <v>-0.09169544233064077</v>
       </c>
       <c r="E94">
-        <v>-0.1696581810999036</v>
+        <v>0.3041059865522147</v>
       </c>
       <c r="F94">
-        <v>0.1693364363805897</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.007060735257246634</v>
+      </c>
+      <c r="G94">
+        <v>-0.3839494287771092</v>
+      </c>
+      <c r="H94">
+        <v>0.09635226800569982</v>
+      </c>
+      <c r="I94">
+        <v>0.1648806084466142</v>
+      </c>
+      <c r="J94">
+        <v>0.4457951848016991</v>
+      </c>
+      <c r="K94">
+        <v>-0.2631813826492704</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.02544280251866673</v>
+        <v>-0.03369259416805725</v>
       </c>
       <c r="C95">
-        <v>0.0639434752059183</v>
+        <v>0.1084242114673396</v>
       </c>
       <c r="D95">
-        <v>0.02722049327055773</v>
+        <v>-0.02548678793557017</v>
       </c>
       <c r="E95">
-        <v>0.01323654503251061</v>
+        <v>0.00432238133261888</v>
       </c>
       <c r="F95">
-        <v>-0.1143748063285108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.02789366711623519</v>
+      </c>
+      <c r="G95">
+        <v>0.1286479341169721</v>
+      </c>
+      <c r="H95">
+        <v>-0.03104549592877874</v>
+      </c>
+      <c r="I95">
+        <v>-0.07129231025491743</v>
+      </c>
+      <c r="J95">
+        <v>0.1861071982619981</v>
+      </c>
+      <c r="K95">
+        <v>0.6154934426727248</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.005718598849300057</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.01194215627716151</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02296890661843029</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-0.01384619978078858</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01439792214134756</v>
+      </c>
+      <c r="G97">
+        <v>0.03474916370164353</v>
+      </c>
+      <c r="H97">
+        <v>0.005356712710862677</v>
+      </c>
+      <c r="I97">
+        <v>-0.003066054896194869</v>
+      </c>
+      <c r="J97">
+        <v>-0.01965706497300338</v>
+      </c>
+      <c r="K97">
+        <v>-0.05525583115303079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.07600677225900318</v>
+        <v>-0.1317245995400301</v>
       </c>
       <c r="C98">
-        <v>0.1492794500747406</v>
+        <v>0.1634303061799948</v>
       </c>
       <c r="D98">
-        <v>0.0259329864722542</v>
+        <v>-0.07496320137365044</v>
       </c>
       <c r="E98">
-        <v>0.06449346383399529</v>
+        <v>0.07322445938006381</v>
       </c>
       <c r="F98">
-        <v>-0.2024155680429742</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.02998102730372726</v>
+      </c>
+      <c r="G98">
+        <v>0.356386022605361</v>
+      </c>
+      <c r="H98">
+        <v>0.3548625283531328</v>
+      </c>
+      <c r="I98">
+        <v>0.1148853192230902</v>
+      </c>
+      <c r="J98">
+        <v>-0.06335577431084966</v>
+      </c>
+      <c r="K98">
+        <v>-0.1328546614319626</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001222417965120809</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.009999765587122492</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.01148198368224812</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.008045603894006641</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.002425348738482957</v>
+      </c>
+      <c r="G99">
+        <v>0.00551124486223848</v>
+      </c>
+      <c r="H99">
+        <v>-0.03836963188503797</v>
+      </c>
+      <c r="I99">
+        <v>0.02370479044246349</v>
+      </c>
+      <c r="J99">
+        <v>-0.006929590977080176</v>
+      </c>
+      <c r="K99">
+        <v>-0.1906576123741754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.007820972219619254</v>
+        <v>-0.01062966262930687</v>
       </c>
       <c r="C101">
-        <v>0.05380771516432849</v>
+        <v>0.0757494903509323</v>
       </c>
       <c r="D101">
-        <v>-0.04763957845714751</v>
+        <v>-0.03224580930167138</v>
       </c>
       <c r="E101">
-        <v>0.1082796158806228</v>
+        <v>-0.1099571326747686</v>
       </c>
       <c r="F101">
-        <v>-0.06270036152581895</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03114697443707968</v>
+      </c>
+      <c r="G101">
+        <v>0.1547503911355416</v>
+      </c>
+      <c r="H101">
+        <v>-0.2738663400790146</v>
+      </c>
+      <c r="I101">
+        <v>-0.06686999413281143</v>
+      </c>
+      <c r="J101">
+        <v>0.2366403940986619</v>
+      </c>
+      <c r="K101">
+        <v>-0.1144722769255335</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>0.01282287573338097</v>
+        <v>-0.005470528588267044</v>
       </c>
       <c r="C102">
-        <v>0.08405180309305268</v>
+        <v>0.03989754055599056</v>
       </c>
       <c r="D102">
-        <v>0.06060923978898559</v>
+        <v>-0.01343718517662969</v>
       </c>
       <c r="E102">
-        <v>-0.04880060482194603</v>
+        <v>0.04423392485819245</v>
       </c>
       <c r="F102">
-        <v>0.0255143221978204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.01630535061986301</v>
+      </c>
+      <c r="G102">
+        <v>-0.03666428163381193</v>
+      </c>
+      <c r="H102">
+        <v>-0.008221833761698528</v>
+      </c>
+      <c r="I102">
+        <v>-0.002636426293203515</v>
+      </c>
+      <c r="J102">
+        <v>-0.002244358386473564</v>
+      </c>
+      <c r="K102">
+        <v>-0.02137843993248915</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
